--- a/config/languages.xlsx
+++ b/config/languages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Desktop\Dev\Apps\Apps_Python\Proyectos\EasyViewer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C17FBB-3B90-413A-B3E2-8C5F08A4EFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE377F9-5C5A-48A6-819C-912AA0D36476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Español</t>
   </si>
@@ -28,18 +28,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Introduce la URL del video a descargar</t>
-  </si>
-  <si>
-    <t>Enter the URL of the video to download</t>
-  </si>
-  <si>
-    <t>¿Donde quieres guardar el video?</t>
-  </si>
-  <si>
-    <t>Where do you want to save the video?</t>
-  </si>
-  <si>
     <t>Seleccionar ubicación</t>
   </si>
   <si>
@@ -58,42 +46,12 @@
     <t>Download audio</t>
   </si>
   <si>
-    <t>Progreso de la descarga</t>
-  </si>
-  <si>
-    <t>Download progress</t>
-  </si>
-  <si>
     <t>¿Está seguro de que desea salir?</t>
   </si>
   <si>
     <t>Are you sure you want to go out?</t>
   </si>
   <si>
-    <t>Si, salir de la app</t>
-  </si>
-  <si>
-    <t>Yes, exit the app</t>
-  </si>
-  <si>
-    <t>No, solo minimizar</t>
-  </si>
-  <si>
-    <t>No, just minimize</t>
-  </si>
-  <si>
-    <t>Cancelar, permanecer en la app</t>
-  </si>
-  <si>
-    <t>Cancel, stay in the app</t>
-  </si>
-  <si>
-    <t>Salir</t>
-  </si>
-  <si>
-    <t>Exit</t>
-  </si>
-  <si>
     <t>Contacto</t>
   </si>
   <si>
@@ -128,13 +86,43 @@
   </si>
   <si>
     <t>The URL is not from YouTube</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Confirmación cierre</t>
+  </si>
+  <si>
+    <t>Closing confirmation</t>
+  </si>
+  <si>
+    <t>Select directory</t>
+  </si>
+  <si>
+    <t>Selecciona directorio</t>
+  </si>
+  <si>
+    <t>URL del video</t>
+  </si>
+  <si>
+    <t>Video URL</t>
+  </si>
+  <si>
+    <t>Directorio para el video o el audio del video</t>
+  </si>
+  <si>
+    <t>Directory for video or audio in video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +134,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -188,15 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,16 +486,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -544,7 +523,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -560,115 +539,99 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
+      <c r="A10" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/config/languages.xlsx
+++ b/config/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Desktop\Dev\Apps\Apps_Python\Proyectos\EasyViewer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE377F9-5C5A-48A6-819C-912AA0D36476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8F1B9D-04D9-48A8-8210-5D7DFE515C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Español</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Directory for video or audio in video</t>
+  </si>
+  <si>
+    <t>Redes sociales</t>
+  </si>
+  <si>
+    <t>Social networks</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,6 +640,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config/languages.xlsx
+++ b/config/languages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Desktop\Dev\Apps\Apps_Python\Proyectos\EasyViewer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8F1B9D-04D9-48A8-8210-5D7DFE515C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B34FDF-857A-42F4-99CC-D77EE356B03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Español</t>
   </si>
@@ -122,13 +122,21 @@
   </si>
   <si>
     <t>Social networks</t>
+  </si>
+  <si>
+    <t>There was a problem trying to get the video.
+Please try again</t>
+  </si>
+  <si>
+    <t>Hubo un problema al intentar obtener el video.
+Por favor inténtelo de nuevo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +155,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,16 +192,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,161 +517,172 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/languages.xlsx
+++ b/config/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Desktop\Dev\Apps\Apps_Python\Proyectos\EasyViewer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B34FDF-857A-42F4-99CC-D77EE356B03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F71408D-DA43-4586-9B3A-016ACB53939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Idiomas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Español</t>
   </si>
@@ -124,12 +125,32 @@
     <t>Social networks</t>
   </si>
   <si>
-    <t>There was a problem trying to get the video.
+    <t>Habido un problema mientras se intentaba obtener el video.
+Por favor inténtelo de nuevo</t>
+  </si>
+  <si>
+    <t>There was a problem while trying to get the video.
 Please try again</t>
   </si>
   <si>
-    <t>Hubo un problema al intentar obtener el video.
-Por favor inténtelo de nuevo</t>
+    <t>Hay una nueva version disponible.
+¿Quieres actualizar a la última versión?</t>
+  </si>
+  <si>
+    <t>You've the latest version available</t>
+  </si>
+  <si>
+    <t>There's a new version available. 
+Do you wanna update to the latest version?</t>
+  </si>
+  <si>
+    <t>Tienes la ultima versión disponible</t>
+  </si>
+  <si>
+    <t>Actualizar mas tarde</t>
+  </si>
+  <si>
+    <t>Update later</t>
   </si>
 </sst>
 </file>
@@ -519,8 +540,8 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,10 +696,34 @@
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">

--- a/config/languages.xlsx
+++ b/config/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Desktop\Dev\Apps\Apps_Python\Proyectos\EasyViewer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F71408D-DA43-4586-9B3A-016ACB53939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C5BBAA-22EE-4A27-8DD3-7EE974599B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Idiomas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Español</t>
   </si>
@@ -144,20 +143,26 @@
 Do you wanna update to the latest version?</t>
   </si>
   <si>
-    <t>Tienes la ultima versión disponible</t>
-  </si>
-  <si>
     <t>Actualizar mas tarde</t>
   </si>
   <si>
     <t>Update later</t>
+  </si>
+  <si>
+    <t>Actualizar aplicación</t>
+  </si>
+  <si>
+    <t>Update app</t>
+  </si>
+  <si>
+    <t>Tienes la última versión disponible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,14 +181,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,9 +215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -231,6 +225,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,8 +537,8 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,183 +548,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/languages.xlsx
+++ b/config/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Desktop\Dev\Apps\Apps_Python\Proyectos\EasyViewer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C5BBAA-22EE-4A27-8DD3-7EE974599B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E90381-42EC-4760-9157-81AB4F23EB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Español</t>
   </si>
@@ -130,32 +130,6 @@
   <si>
     <t>There was a problem while trying to get the video.
 Please try again</t>
-  </si>
-  <si>
-    <t>Hay una nueva version disponible.
-¿Quieres actualizar a la última versión?</t>
-  </si>
-  <si>
-    <t>You've the latest version available</t>
-  </si>
-  <si>
-    <t>There's a new version available. 
-Do you wanna update to the latest version?</t>
-  </si>
-  <si>
-    <t>Actualizar mas tarde</t>
-  </si>
-  <si>
-    <t>Update later</t>
-  </si>
-  <si>
-    <t>Actualizar aplicación</t>
-  </si>
-  <si>
-    <t>Update app</t>
-  </si>
-  <si>
-    <t>Tienes la última versión disponible</t>
   </si>
 </sst>
 </file>
@@ -210,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -225,9 +199,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -538,7 +509,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,36 +671,20 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/languages.xlsx
+++ b/config/languages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Desktop\Dev\Apps\Apps_Python\Proyectos\EasyViewer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E90381-42EC-4760-9157-81AB4F23EB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F662C-D1F5-49FE-889F-64D185A057B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Español</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Download audio</t>
   </si>
   <si>
-    <t>¿Está seguro de que desea salir?</t>
-  </si>
-  <si>
-    <t>Are you sure you want to go out?</t>
-  </si>
-  <si>
     <t>Contacto</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
   </si>
   <si>
     <t>Redes sociales</t>
-  </si>
-  <si>
-    <t>Social networks</t>
   </si>
   <si>
     <t>Habido un problema mientras se intentaba obtener el video.
@@ -130,6 +121,33 @@
   <si>
     <t>There was a problem while trying to get the video.
 Please try again</t>
+  </si>
+  <si>
+    <t>Are you sure you wanna go out?</t>
+  </si>
+  <si>
+    <t>¿Estás seguro de que quieres salir?</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Hay una nueva versión disponible</t>
+  </si>
+  <si>
+    <t>A new version is available</t>
+  </si>
+  <si>
+    <t>¿Quieres actualizar a la ultima versión?</t>
+  </si>
+  <si>
+    <t>Do you wanna update to the latest version?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Más tarde </t>
+  </si>
+  <si>
+    <t>Later</t>
   </si>
 </sst>
 </file>
@@ -509,7 +527,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,34 +570,34 @@
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,12 +605,12 @@
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
@@ -600,87 +618,99 @@
     </row>
     <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>

--- a/config/languages.xlsx
+++ b/config/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Desktop\Dev\Apps\Apps_Python\Proyectos\EasyViewer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F662C-D1F5-49FE-889F-64D185A057B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8591816E-D002-4524-942B-1FCB049D26D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Español</t>
   </si>
@@ -115,14 +115,6 @@
     <t>Redes sociales</t>
   </si>
   <si>
-    <t>Habido un problema mientras se intentaba obtener el video.
-Por favor inténtelo de nuevo</t>
-  </si>
-  <si>
-    <t>There was a problem while trying to get the video.
-Please try again</t>
-  </si>
-  <si>
     <t>Are you sure you wanna go out?</t>
   </si>
   <si>
@@ -148,6 +140,26 @@
   </si>
   <si>
     <t>Later</t>
+  </si>
+  <si>
+    <t>Comprobar actualizaciones automáticamente</t>
+  </si>
+  <si>
+    <t>Check for updates automatically</t>
+  </si>
+  <si>
+    <t>Versión Actualizada</t>
+  </si>
+  <si>
+    <t>¡Felicidades! Estás utilizando la última versión de la aplicación. 
+No es necesario realizar ninguna actualización en este momento.</t>
+  </si>
+  <si>
+    <t>Updated Version</t>
+  </si>
+  <si>
+    <t>Congratulations! You are using the latest version of the app. 
+No update is required at this time.</t>
   </si>
 </sst>
 </file>
@@ -524,10 +536,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,10 +582,10 @@
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,30 +689,30 @@
         <v>30</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -713,8 +725,20 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/languages.xlsx
+++ b/config/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raulc\Desktop\Dev\Apps\Apps_Python\Proyectos\EasyViewer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8591816E-D002-4524-942B-1FCB049D26D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F7A006-EFB6-4DCA-948D-9F14C9C62D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Español</t>
   </si>
@@ -160,6 +160,16 @@
   <si>
     <t>Congratulations! You are using the latest version of the app. 
 No update is required at this time.</t>
+  </si>
+  <si>
+    <t>Algo ha ido mal. 
+Por favor, inténtalo de nuevo más tarde. 
+Si el problema persiste, contacta conmigo a través de mis redes sociales</t>
+  </si>
+  <si>
+    <t>Something has gone wrong. 
+Please try again later. 
+If the problem persists, contact me through my social networks</t>
   </si>
 </sst>
 </file>
@@ -536,10 +546,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,6 +750,14 @@
         <v>45</v>
       </c>
     </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
